--- a/SegPaper/paper_summary.xlsx
+++ b/SegPaper/paper_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programer\Desktop\SegPaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Programer\Documents\GitHub\Segmentation\SegPaper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161A9DD7-6417-4970-AAFF-CEE8260A06A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66E12EA-0A28-4E9D-BAF1-E0D5B44EB1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11640" yWindow="3330" windowWidth="33705" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,90 @@
   </si>
   <si>
     <t>Sparse Non-local CRF</t>
+  </si>
+  <si>
+    <t>Sparse Non-local CRF是基于偏最小二乘的图像分割方法中的一种，它将颜色相似的像素连接起来，形成“非局部”连接。Pixel的空间位置不是组成因素，而颜色距离是组成因素，它可以通过“相似”的颜色推断出相似的颜色。</t>
+  </si>
+  <si>
+    <t>Sparse Non-local CRF是重要的计算机视觉领域的技术趋势之一，它有效地解决了对象分割和像素标签问题，在提高计算机视觉应用的实时性和效率的同时，保证了处理精度和信息准确性，推动了领域研究的发展。</t>
+  </si>
+  <si>
+    <t>Cris: Clip-driven referring image segmentation</t>
+  </si>
+  <si>
+    <t>本研究提出了一個基於CLIP的參照圖像分割框架（CRIS），用於實現文本到像素的對齊。CRIS使用視覺語言解碼器和對比學習來實現文本到像素的對齊。實驗結果表明，CRIS明顯優於前沿方法的性能，而無需進行任何後處理</t>
+  </si>
+  <si>
+    <t>本研究提出的CRIS框架創新地利用CLIP的知識來增強跨模式匹配能力，並提高多模式信息的兼容性</t>
+  </si>
+  <si>
+    <t>Hyperbolic image segmentation</t>
+  </si>
+  <si>
+    <t>本研究提出了超伽马图像分割的方案，该方法基于超伽马流形理论，在像素级别上实现了分类优化，从而可以更好地适应图像视觉任务。本方法通用且适用于任何分割架构，为计算机视觉领域带来了广泛的应用前景</t>
+  </si>
+  <si>
+    <t>Generalizable Medical Image Segmentation via Random Amplitude Mixup and Domain-Specific Image Restoration</t>
+  </si>
+  <si>
+    <t>ECCV2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括三个主要组件：随机幅度mixup (RAM) 模块，领域特定图像修复 (DSIR) 模块和语义一致性损失。具体地，本文在多个源域生成新的样本，然后使用DSIR模块来对生成的样本进行低级别特征恢复，最终采用分割模型来预测病例图像的分割标签</t>
+  </si>
+  <si>
+    <t>本文提出了一种结合自监督任务和领域泛化的医学图像分割方法，旨在提高模型的通用性和鲁棒性</t>
+  </si>
+  <si>
+    <t>BraTS ACDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class-Aware Adversarial Transformers for Medical Image Segmentation</t>
+  </si>
+  <si>
+    <t>NIPS2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种新型的对抗Transformer方法CASTformer，用于2D医学图像分割任务。该方法包括四个关键组件: 特征提取编码器、适配性聚焦的类别感知Transformer模块、用于建模长程上下文信息的Transformer编码器模块以及生成分割掩码的解码器模块。其中的类别感知Transformer模块允许解剖结构的上下文信息传播到表示中。Transformer编码器模块采用了ViT的架构，由多头自注意力和MLP块组成。解码器模块包括一个轻量级的全MLP解码器，它能有效地融合串联特征，以预测多类别分割掩码</t>
+  </si>
+  <si>
+    <t>Local Spatiotemporal Representation Learning for Longitudinally-consistent Neuroimage Analysis</t>
+  </si>
+  <si>
+    <t>本文提出的自我监督框架是一种针对长期神经影像的局部和多尺度的时空表示学习方法，具有通用性</t>
+  </si>
+  <si>
+    <t>通过统计假设检验框架量化DNN驱动的假设的可靠性的方法</t>
+  </si>
+  <si>
+    <t>Quantifying Statistical Significance of Neural Network-based Image Segmentation by Selective Inference</t>
+  </si>
+  <si>
+    <t>提出了新的用于DNN驱动分割结果的选择事件的准确计算方法。</t>
+  </si>
+  <si>
+    <t>Structure-Aware Image Segmentation with Homotopy Warping</t>
+  </si>
+  <si>
+    <t>本文提出了一种新的算法，通过定位拓扑关键点来解决深度学习算法在图像分割中存在的拓扑错误问题，可以提高图像分割算法的精确性和效率</t>
+  </si>
+  <si>
+    <t>本文提出的方法依靠持续性同调理论，并通过距离变换来实现对于图像中的拓扑关键像素的定位。 b. 文章的技术路线（逐步）：首先，定义了拓扑关键像素并提出了重构误差损失来对这些像素上的预测误差进行惩罚。接着，使用距离变换来确定图像中的关键像素，从而实现准确的位点选择。最后，通过迭代翻转像素标签来改善分割图与真实标签之间的拓扑关系</t>
+  </si>
+  <si>
+    <t>Ganseg: Learning to segment by unsupervised hierarchical image generation</t>
+  </si>
+  <si>
+    <t>我们的研究建立在GAN模型的基础上，使用潜在空间的编码来生成图像、掩模、前景和背景。在此基础上，我们提出了一种新颖的分层图像生成方法来产生更加准确的部分分割，并提高了对视角和物体位置变化的鲁棒性</t>
+  </si>
+  <si>
+    <t>引入k-means聚类算法来实现特征聚合</t>
+  </si>
+  <si>
+    <t>k-means Mask Transformer</t>
   </si>
 </sst>
 </file>
@@ -187,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -196,6 +280,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -476,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -593,6 +678,129 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
